--- a/SamplingLocations/SamplingLocation_VirginSoil_2021.xlsx
+++ b/SamplingLocations/SamplingLocation_VirginSoil_2021.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sudha.gcupadhaya\Desktop\NonAgriculturalSoils\SamplingLocation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sudha.gcupadhaya\Desktop\NonAgriculturalSoils\SamplingLocations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B099212-24B3-4A68-A8EA-A66418591B27}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{971D2B00-D165-4FF4-9639-E16D0AD42A72}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="78">
   <si>
     <t>Source</t>
   </si>
@@ -175,6 +175,96 @@
   </si>
   <si>
     <t>509-398-1614</t>
+  </si>
+  <si>
+    <t>SoilOrder</t>
+  </si>
+  <si>
+    <t>SoilGreatgroup</t>
+  </si>
+  <si>
+    <t>SoilSubgroup</t>
+  </si>
+  <si>
+    <t>SoilFamily</t>
+  </si>
+  <si>
+    <t>SoilSeries</t>
+  </si>
+  <si>
+    <t>Mollisols</t>
+  </si>
+  <si>
+    <t>Haploxerolls</t>
+  </si>
+  <si>
+    <t>Calcidic Haploxerolls</t>
+  </si>
+  <si>
+    <t>...mesic Calcidic Haploxerolls</t>
+  </si>
+  <si>
+    <t>Ritzville</t>
+  </si>
+  <si>
+    <t>Entisols</t>
+  </si>
+  <si>
+    <t>Torripsamments</t>
+  </si>
+  <si>
+    <t>Xeric Torripsamments</t>
+  </si>
+  <si>
+    <t>...Xeric Torripsamments</t>
+  </si>
+  <si>
+    <t>Quincy</t>
+  </si>
+  <si>
+    <t>Skagit Valley</t>
+  </si>
+  <si>
+    <t>Skagit virgin 1</t>
+  </si>
+  <si>
+    <t>Hasn't had potatoes in 30 years</t>
+  </si>
+  <si>
+    <t>Brock Ingman</t>
+  </si>
+  <si>
+    <t>Planted a few days prior to sampling</t>
+  </si>
+  <si>
+    <t>Fluvents</t>
+  </si>
+  <si>
+    <t>Aquic Xerofluvents</t>
+  </si>
+  <si>
+    <t>...mesic Aquic Xerofluvents</t>
+  </si>
+  <si>
+    <t>Field</t>
+  </si>
+  <si>
+    <t>Skagit potatoes 1</t>
+  </si>
+  <si>
+    <t>Every 3 years for XX years</t>
+  </si>
+  <si>
+    <t>2017/2018:NoCrop - 2019: S W W Wheat - 2020: Grain Corn</t>
+  </si>
+  <si>
+    <t>Michael Madsen</t>
+  </si>
+  <si>
+    <t>mmadsen@agrinw.com</t>
+  </si>
+  <si>
+    <t>2017/2018/2019:NoCrop - 2020: Grain Corn</t>
   </si>
 </sst>
 </file>
@@ -190,12 +280,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -210,8 +312,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -491,16 +595,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A355BBE-4289-4ECE-9E38-5B2C73F1EF8A}">
-  <dimension ref="A1:M10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{352272DC-2F59-4813-82ED-211CAC24A423}">
+  <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -511,10 +615,10 @@
         <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F1" t="s">
         <v>10</v>
@@ -535,86 +639,131 @@
         <v>18</v>
       </c>
       <c r="L1" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="M1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2">
+        <v>49</v>
+      </c>
+      <c r="N1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>1201</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1">
+        <v>46.283706000000002</v>
+      </c>
+      <c r="E2" s="1">
+        <v>-118.674581</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="1">
+        <v>2021</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
+      <c r="R2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" t="s">
+    </row>
+    <row r="3" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1209</v>
+      </c>
+      <c r="D3" s="2">
+        <v>46.281286000000001</v>
+      </c>
+      <c r="E3" s="2">
+        <v>-118.68476099999999</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J2">
-        <v>2021</v>
-      </c>
-      <c r="L2">
-        <v>46.283706000000002</v>
-      </c>
-      <c r="M2">
-        <v>-118.674581</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3">
-        <v>1209</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="J3" s="2">
+        <v>2021</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E3" t="s">
+      <c r="R3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3">
-        <v>2021</v>
-      </c>
-      <c r="L3">
-        <v>46.281286000000001</v>
-      </c>
-      <c r="M3">
-        <v>-118.68476099999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -624,11 +773,11 @@
       <c r="C4">
         <v>1210</v>
       </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" t="s">
-        <v>4</v>
+      <c r="D4">
+        <v>46.271836</v>
+      </c>
+      <c r="E4">
+        <v>-118.68444700000001</v>
       </c>
       <c r="F4" t="s">
         <v>7</v>
@@ -645,179 +794,495 @@
       <c r="J4">
         <v>2021</v>
       </c>
-      <c r="L4">
-        <v>46.271836</v>
-      </c>
-      <c r="M4">
-        <v>-118.68444700000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="L4" t="s">
+        <v>53</v>
+      </c>
+      <c r="M4" t="s">
+        <v>54</v>
+      </c>
+      <c r="N4" t="s">
+        <v>55</v>
+      </c>
+      <c r="O4" t="s">
+        <v>56</v>
+      </c>
+      <c r="P4" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>27</v>
+      </c>
+      <c r="R4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="5" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>106</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1">
+        <v>47.084598</v>
+      </c>
+      <c r="E5" s="1">
+        <v>-119.808285</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="1">
+        <v>2021</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E5" t="s">
+      <c r="R5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" t="s">
+    </row>
+    <row r="6" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2">
+        <v>47.076717000000002</v>
+      </c>
+      <c r="E6" s="2">
+        <v>-119.802953</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J5">
-        <v>2021</v>
-      </c>
-      <c r="L5">
-        <v>47.084598</v>
-      </c>
-      <c r="M5">
-        <v>-119.808285</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="J6" s="2">
+        <v>2021</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="2">
+        <v>47.045431000000001</v>
+      </c>
+      <c r="E7" s="2">
+        <v>-119.609527</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="G7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" s="2">
+        <v>2021</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="1">
+        <v>47.039912999999999</v>
+      </c>
+      <c r="E8" s="1">
+        <v>-119.60402499999999</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J8" s="1">
+        <v>2021</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="2">
+        <v>48.438200000000002</v>
+      </c>
+      <c r="E9" s="2">
+        <v>-122.4225</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J9" s="2">
+        <v>2021</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="1">
+        <v>48.432600000000001</v>
+      </c>
+      <c r="E10" s="1">
+        <v>-122.37909999999999</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J10" s="1">
+        <v>2021</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="2">
+        <v>983</v>
+      </c>
+      <c r="D11" s="2">
+        <v>45.697248860000002</v>
+      </c>
+      <c r="E11" s="2">
+        <v>-119.35471819999999</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J11" s="2">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="2">
+        <v>989</v>
+      </c>
+      <c r="D12" s="2">
+        <v>45.671764809999999</v>
+      </c>
+      <c r="E12" s="2">
+        <v>-119.346965</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J12" s="2">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="2">
+        <v>990</v>
+      </c>
+      <c r="D13" s="2">
+        <v>45.665571800000002</v>
+      </c>
+      <c r="E13" s="2">
+        <v>-119.35182949999999</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J13" s="2">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="D6" t="s">
+      <c r="B14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="2">
+        <v>991</v>
+      </c>
+      <c r="D14" s="2">
+        <v>45.657222269999998</v>
+      </c>
+      <c r="E14" s="2">
+        <v>-119.346829</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J14" s="2">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="E6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6">
-        <v>2021</v>
-      </c>
-      <c r="L6">
-        <v>47.076717000000002</v>
-      </c>
-      <c r="M6">
-        <v>-119.802953</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="B15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" t="s">
-        <v>40</v>
-      </c>
-      <c r="I7" t="s">
-        <v>41</v>
-      </c>
-      <c r="J7">
-        <v>2021</v>
-      </c>
-      <c r="K7" t="s">
-        <v>42</v>
-      </c>
-      <c r="L7">
-        <v>47.045431000000001</v>
-      </c>
-      <c r="M7">
-        <v>-119.609527</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="C15" s="1">
+        <v>14</v>
+      </c>
+      <c r="D15" s="1">
+        <v>45.679267000000003</v>
+      </c>
+      <c r="E15" s="1">
+        <v>-119.346864</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I8" t="s">
-        <v>47</v>
-      </c>
-      <c r="J8">
-        <v>2021</v>
-      </c>
-      <c r="K8" t="s">
-        <v>42</v>
-      </c>
-      <c r="L8">
-        <v>47.039912999999999</v>
-      </c>
-      <c r="M8">
-        <v>-119.60402499999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
+      <c r="H15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J15" s="1">
+        <v>2021</v>
       </c>
     </row>
   </sheetData>
